--- a/Tools/excel2json-master/event_data.xlsx
+++ b/Tools/excel2json-master/event_data.xlsx
@@ -25,7 +25,9 @@
     <comment authorId="0" ref="D2">
       <text>
         <t xml:space="preserve">이 이벤트를 통해 현재 몇위 국가의 순위를 바꿀수 있는지 체크.
-값이 0이면 랜덤이다.</t>
+값이 0이면 랜덤이다.
+=&gt; 이건 기획적으로 더 생각해보고
+</t>
       </text>
     </comment>
     <comment authorId="0" ref="E2">
@@ -56,15 +58,13 @@
     <t>content</t>
   </si>
   <si>
-    <t>현재 1등인 국가 선수 표정이 이상하군요! 
-무슨일이죠?!</t>
+    <t>현재 1등인 국가 선수 표정이 이상하군요! \n무슨일이죠?!</t>
   </si>
   <si>
     <t>1,2</t>
   </si>
   <si>
-    <t>현재 1등 선수와 2등선수가 서로 맞붙었습니다!
-굉장하군요!!</t>
+    <t>현재 1등 선수와 2등선수가 서로 맞붙었습니다!\n굉장하군요!!</t>
   </si>
   <si>
     <t>추돌 사고가 일어났습니다!</t>
@@ -109,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -127,9 +127,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -211,7 +208,7 @@
       <c r="D5" s="5">
         <v>0.0</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -226,7 +223,7 @@
         <v>1.0</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -240,7 +237,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -253,7 +250,7 @@
       <c r="D8" s="5">
         <v>0.0</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -268,7 +265,7 @@
         <v>1.0</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -282,7 +279,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -295,7 +292,7 @@
       <c r="D11" s="5">
         <v>0.0</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -310,7 +307,7 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -324,7 +321,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -337,7 +334,7 @@
       <c r="D14" s="5">
         <v>0.0</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -352,7 +349,7 @@
         <v>1.0</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -366,7 +363,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -379,7 +376,7 @@
       <c r="D17" s="5">
         <v>0.0</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -394,7 +391,7 @@
         <v>1.0</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -408,7 +405,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -421,7 +418,7 @@
       <c r="D20" s="5">
         <v>0.0</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -436,7 +433,7 @@
         <v>1.0</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -450,7 +447,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -463,7 +460,7 @@
       <c r="D23" s="5">
         <v>0.0</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -478,7 +475,7 @@
         <v>1.0</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -492,7 +489,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -505,7 +502,7 @@
       <c r="D26" s="5">
         <v>0.0</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -520,7 +517,7 @@
         <v>1.0</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -534,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -547,7 +544,7 @@
       <c r="D29" s="5">
         <v>0.0</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -562,7 +559,7 @@
         <v>1.0</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -576,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -589,7 +586,7 @@
       <c r="D32" s="5">
         <v>0.0</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -604,7 +601,7 @@
         <v>1.0</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -618,7 +615,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -631,7 +628,7 @@
       <c r="D35" s="5">
         <v>0.0</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -646,7 +643,7 @@
         <v>1.0</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -660,7 +657,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -673,7 +670,7 @@
       <c r="D38" s="5">
         <v>0.0</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -688,7 +685,7 @@
         <v>1.0</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -702,7 +699,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -715,7 +712,7 @@
       <c r="D41" s="5">
         <v>0.0</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -730,7 +727,7 @@
         <v>1.0</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -744,7 +741,7 @@
         <v>6</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -757,7 +754,7 @@
       <c r="D44" s="5">
         <v>0.0</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -772,7 +769,7 @@
         <v>1.0</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -786,7 +783,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -799,7 +796,7 @@
       <c r="D47" s="5">
         <v>0.0</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="6" t="s">
         <v>8</v>
       </c>
     </row>
